--- a/Brainstorming/Ergebnisse.xlsx
+++ b/Brainstorming/Ergebnisse.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\M1\STI\STI-Repo\Brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B300075B-A941-495A-BB0B-A4CF86773410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A220E1-41BA-41DF-B565-772EBD765E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
   <si>
     <t>Algorithmus</t>
   </si>
@@ -54,27 +65,9 @@
     <t>RLE</t>
   </si>
   <si>
-    <t>Deflate</t>
-  </si>
-  <si>
-    <t>PNG</t>
-  </si>
-  <si>
-    <t>Max Runlength: 2817</t>
-  </si>
-  <si>
-    <t>12 Bits for Runlength</t>
-  </si>
-  <si>
     <t>Infos:</t>
   </si>
   <si>
-    <t>2.143.426 Byte</t>
-  </si>
-  <si>
-    <t>877.089 Byte + 768 Byte</t>
-  </si>
-  <si>
     <t>(945, 718)</t>
   </si>
   <si>
@@ -96,60 +89,485 @@
     <t>321 ms</t>
   </si>
   <si>
-    <t>63.395 ms</t>
-  </si>
-  <si>
-    <t>511.036 Bytes</t>
-  </si>
-  <si>
-    <t>72.963 ms</t>
-  </si>
-  <si>
-    <t>435.806 Bytes</t>
-  </si>
-  <si>
-    <t>63.460 ms</t>
-  </si>
-  <si>
-    <t>73.280 ms</t>
-  </si>
-  <si>
-    <t>Revert Filter Time: 4.2 s</t>
-  </si>
-  <si>
-    <t>Filter Time: 50 s</t>
-  </si>
-  <si>
     <t>LZ77 Komp:  47 s</t>
   </si>
   <si>
     <t>LZ77 Dekomp:  47 s</t>
   </si>
   <si>
-    <t>Komp. Größe: 449.328 Bytes</t>
-  </si>
-  <si>
-    <t>718 Byte Filter + 349.006 Bytes</t>
-  </si>
-  <si>
-    <t>100 s</t>
-  </si>
-  <si>
-    <t>53 s</t>
-  </si>
-  <si>
     <t xml:space="preserve">Größe </t>
   </si>
   <si>
     <t>2.035.530 Byte</t>
+  </si>
+  <si>
+    <t>Filter + Huffman</t>
+  </si>
+  <si>
+    <t>Filter + LZ77</t>
+  </si>
+  <si>
+    <t>Deflate (LZ77 + Huffman)</t>
+  </si>
+  <si>
+    <t>PNG  (Filter + Deflate)</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 718 Byte</t>
+  </si>
+  <si>
+    <t>Fade 1</t>
+  </si>
+  <si>
+    <t>(318, 159)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revert Filter Time: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter Time: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Runlength: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bits for Runlength</t>
+  </si>
+  <si>
+    <t>18 ms</t>
+  </si>
+  <si>
+    <t>48 ms</t>
+  </si>
+  <si>
+    <t>Fade 2</t>
+  </si>
+  <si>
+    <t>554 ms</t>
+  </si>
+  <si>
+    <t>1575 ms</t>
+  </si>
+  <si>
+    <t>14 s</t>
+  </si>
+  <si>
+    <t>3.5 s</t>
+  </si>
+  <si>
+    <t>4.255.828 Byte + 471 Byte</t>
+  </si>
+  <si>
+    <t>129.320 Byte + 675 Byte</t>
+  </si>
+  <si>
+    <t>63 s</t>
+  </si>
+  <si>
+    <t>1.810.215 Bytes</t>
+  </si>
+  <si>
+    <t>Flagge</t>
+  </si>
+  <si>
+    <t>151.380 Byte</t>
+  </si>
+  <si>
+    <t>4.779.540 Byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bits for Runlength: 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Runlength: 49590 </t>
+  </si>
+  <si>
+    <t>32 Byte</t>
+  </si>
+  <si>
+    <t>15 ms</t>
+  </si>
+  <si>
+    <t>3 ms</t>
+  </si>
+  <si>
+    <t>314.153 Byte</t>
+  </si>
+  <si>
+    <t>Bits for Runlength: 10</t>
+  </si>
+  <si>
+    <t>Max Runlength: 939</t>
+  </si>
+  <si>
+    <t>877.088 Byte + 768 Byte</t>
+  </si>
+  <si>
+    <t>82 s</t>
+  </si>
+  <si>
+    <t>539.889 Bytes</t>
+  </si>
+  <si>
+    <t>475.225 Bytes + 768 Byte</t>
+  </si>
+  <si>
+    <t>Filter Time: 22 s</t>
+  </si>
+  <si>
+    <t>Revert Filter Time: 2.9 s</t>
+  </si>
+  <si>
+    <t>62 s</t>
+  </si>
+  <si>
+    <t>35 s</t>
+  </si>
+  <si>
+    <t>373.366 Bytes</t>
+  </si>
+  <si>
+    <t>718 Byte Filter + 768 Byte + 262.481 Bytes</t>
+  </si>
+  <si>
+    <t>22 s</t>
+  </si>
+  <si>
+    <t>3 s</t>
+  </si>
+  <si>
+    <t>306.555 Byte + 768 Byte</t>
+  </si>
+  <si>
+    <t>82.320 Byte</t>
+  </si>
+  <si>
+    <t>151.686 Byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bits for Runlength: 5</t>
+  </si>
+  <si>
+    <t>Max Runlength: 30</t>
+  </si>
+  <si>
+    <t>28 ms</t>
+  </si>
+  <si>
+    <t>32 ms</t>
+  </si>
+  <si>
+    <t>112.441 Bytes</t>
+  </si>
+  <si>
+    <t>Filter Time: 1.6 s</t>
+  </si>
+  <si>
+    <t>Revert Filter Time: 220 ms</t>
+  </si>
+  <si>
+    <t>28.360 Byte + 768 + 159</t>
+  </si>
+  <si>
+    <t>5 s</t>
+  </si>
+  <si>
+    <t>500 ms</t>
+  </si>
+  <si>
+    <t>550 ms</t>
+  </si>
+  <si>
+    <t>17 ms</t>
+  </si>
+  <si>
+    <t>8 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + 159 Byte </t>
+  </si>
+  <si>
+    <t>612 ms</t>
+  </si>
+  <si>
+    <t>480 ms</t>
+  </si>
+  <si>
+    <t>Max Runlength: 397</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bits for Runlength: 9</t>
+  </si>
+  <si>
+    <t>1.005.991 Byte</t>
+  </si>
+  <si>
+    <t>22.740 Bytes + 108</t>
+  </si>
+  <si>
+    <t>103.296 Bytes</t>
+  </si>
+  <si>
+    <t>200 s</t>
+  </si>
+  <si>
+    <t>732 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.579.006 Bytes</t>
+  </si>
+  <si>
+    <t>Filter Time: 51 s</t>
+  </si>
+  <si>
+    <t>Revert Filter Time: 7 s</t>
+  </si>
+  <si>
+    <t>140 s</t>
+  </si>
+  <si>
+    <t>184 s</t>
+  </si>
+  <si>
+    <t>51 s</t>
+  </si>
+  <si>
+    <t>7 s</t>
+  </si>
+  <si>
+    <t>680.694 Bytes  + 954</t>
+  </si>
+  <si>
+    <t>926.863 Bytes  + 954</t>
+  </si>
+  <si>
+    <t>775.041 Bytes + 768 + 954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.020 Bytes  + 159 </t>
+  </si>
+  <si>
+    <t>12 ms</t>
+  </si>
+  <si>
+    <t>33.495 Byte + 42</t>
+  </si>
+  <si>
+    <t>2.3 s</t>
+  </si>
+  <si>
+    <t>120 ms</t>
+  </si>
+  <si>
+    <t>124 ms</t>
+  </si>
+  <si>
+    <t>23.012 Byte</t>
+  </si>
+  <si>
+    <t>12.279 Byte + 288</t>
+  </si>
+  <si>
+    <t>Filter Time: 1.3 s</t>
+  </si>
+  <si>
+    <t>Revert Filter Time: 120 ms</t>
+  </si>
+  <si>
+    <t>3.3 s</t>
+  </si>
+  <si>
+    <t>255 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 174 Byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + 954 Byte</t>
+  </si>
+  <si>
+    <t>1.3 s</t>
+  </si>
+  <si>
+    <t>18.929 Byte + 42 + 174</t>
+  </si>
+  <si>
+    <t>23.007 Byte + 174</t>
+  </si>
+  <si>
+    <t>12.059 Byte + 186 + 174</t>
+  </si>
+  <si>
+    <t>Lenna</t>
+  </si>
+  <si>
+    <t>93 ms</t>
+  </si>
+  <si>
+    <t>293 ms</t>
+  </si>
+  <si>
+    <t>(512, 512)</t>
+  </si>
+  <si>
+    <t>1.094.621 Byte</t>
+  </si>
+  <si>
+    <t>786.432 Byte</t>
+  </si>
+  <si>
+    <t>212 ms</t>
+  </si>
+  <si>
+    <t>395 ms</t>
+  </si>
+  <si>
+    <t>Max Runlength: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bits for Runlength: 4</t>
+  </si>
+  <si>
+    <t>764.865 Byte + 759</t>
+  </si>
+  <si>
+    <t>139 s</t>
+  </si>
+  <si>
+    <t>308 s</t>
+  </si>
+  <si>
+    <t>872.641 Byte</t>
+  </si>
+  <si>
+    <t>860.429 Byte +768</t>
+  </si>
+  <si>
+    <t>9.2 s</t>
+  </si>
+  <si>
+    <t>1.4 s</t>
+  </si>
+  <si>
+    <t>Filter Time: 9.2 s</t>
+  </si>
+  <si>
+    <t>Revert Filter Time: 1.4 s</t>
+  </si>
+  <si>
+    <t>131 s</t>
+  </si>
+  <si>
+    <t>230 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 512 Byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 758.568 Byte + 768 + 512 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">844.225 Byte + 512 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">484671 Byte + 690 + 512 </t>
+  </si>
+  <si>
+    <t>Katzen</t>
+  </si>
+  <si>
+    <t>770 ms</t>
+  </si>
+  <si>
+    <t>Max Runlength: 3867</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bits for Runlength: 12</t>
+  </si>
+  <si>
+    <t>3.977.327 Byte</t>
+  </si>
+  <si>
+    <t>330 ms</t>
+  </si>
+  <si>
+    <t>1 s</t>
+  </si>
+  <si>
+    <t>2.724.627 Byte + 768</t>
+  </si>
+  <si>
+    <t>( 1670, 954)</t>
+  </si>
+  <si>
+    <t>(290, 174)</t>
+  </si>
+  <si>
+    <t>(1289, 720)</t>
+  </si>
+  <si>
+    <t>2.784.240 Byte</t>
+  </si>
+  <si>
+    <t>530 s</t>
+  </si>
+  <si>
+    <t>3.101.137 Byte</t>
+  </si>
+  <si>
+    <t>1200 s</t>
+  </si>
+  <si>
+    <t>3.042.710 Byte + 768</t>
+  </si>
+  <si>
+    <t>Filter Time: 32 s</t>
+  </si>
+  <si>
+    <t>Revert Filter Time: 5 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 720 Byte</t>
+  </si>
+  <si>
+    <t>3.073.615 Bytes + 720</t>
+  </si>
+  <si>
+    <t>540 s</t>
+  </si>
+  <si>
+    <t>1205 s</t>
+  </si>
+  <si>
+    <t>2.073.121 Byte + 768 + 720</t>
+  </si>
+  <si>
+    <t>32 s</t>
+  </si>
+  <si>
+    <t>5.1 s</t>
+  </si>
+  <si>
+    <t>2850894 Byte  + 768 + 720</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,9 +595,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -460,158 +879,1064 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:N10"/>
+  <dimension ref="C4:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="3:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
         <v>25</v>
       </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
         <v>35</v>
       </c>
-      <c r="I9" t="s">
+      <c r="D31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L31" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
         <v>36</v>
       </c>
-      <c r="L9" t="s">
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" t="s">
+        <v>127</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L57" t="s">
+        <v>129</v>
+      </c>
+      <c r="M57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" t="s">
+        <v>133</v>
+      </c>
+      <c r="L59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" t="s">
+        <v>132</v>
+      </c>
+      <c r="I60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>145</v>
+      </c>
+      <c r="H61" t="s">
+        <v>136</v>
+      </c>
+      <c r="I61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" t="s">
+        <v>138</v>
+      </c>
+      <c r="I65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" t="s">
+        <v>147</v>
+      </c>
+      <c r="I70" t="s">
+        <v>137</v>
+      </c>
+      <c r="L70" t="s">
+        <v>148</v>
+      </c>
+      <c r="M70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>153</v>
+      </c>
+      <c r="H71" t="s">
+        <v>151</v>
+      </c>
+      <c r="I71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>159</v>
+      </c>
+      <c r="H72" t="s">
+        <v>158</v>
+      </c>
+      <c r="I72" t="s">
+        <v>160</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s">
+        <v>161</v>
+      </c>
+      <c r="H73" t="s">
+        <v>158</v>
+      </c>
+      <c r="I73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>168</v>
+      </c>
+      <c r="H74" t="s">
+        <v>169</v>
+      </c>
+      <c r="I74" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" t="s">
+        <v>166</v>
+      </c>
+      <c r="I75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" t="s">
+        <v>166</v>
+      </c>
+      <c r="I76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s">
+        <v>164</v>
+      </c>
+      <c r="H78" t="s">
+        <v>162</v>
+      </c>
+      <c r="I78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="L85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" t="s">
         <v>30</v>
       </c>
-      <c r="M9" t="s">
+      <c r="I91" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Brainstorming/Ergebnisse.xlsx
+++ b/Brainstorming/Ergebnisse.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\M1\STI\STI-Repo\Brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A220E1-41BA-41DF-B565-772EBD765E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9FA342-B970-471F-ABEB-261A09B6AB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="1455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -881,11 +881,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>

--- a/Brainstorming/Ergebnisse.xlsx
+++ b/Brainstorming/Ergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\M1\STI\STI-Repo\Brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9FA342-B970-471F-ABEB-261A09B6AB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A211D-42D8-4696-99C7-7FD667538F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Brainstorming/Ergebnisse.xlsx
+++ b/Brainstorming/Ergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\M1\STI\STI-Repo\Brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A211D-42D8-4696-99C7-7FD667538F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD86DF6-0936-4448-B36C-D18238BEF231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19680" yWindow="0" windowWidth="9225" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
   <si>
     <t>Algorithmus</t>
   </si>
@@ -551,7 +551,10 @@
     <t>5.1 s</t>
   </si>
   <si>
-    <t>2850894 Byte  + 768 + 720</t>
+    <t>1.6 s</t>
+  </si>
+  <si>
+    <t>2.850.894 Byte  + 768 + 720</t>
   </si>
 </sst>
 </file>
@@ -882,7 +885,7 @@
   <dimension ref="C4:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1172,7 @@
         <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I22" t="s">
         <v>82</v>
@@ -1827,7 +1830,7 @@
         <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H76" t="s">
         <v>166</v>

--- a/Brainstorming/Ergebnisse.xlsx
+++ b/Brainstorming/Ergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\M1\STI\STI-Repo\Brainstorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD86DF6-0936-4448-B36C-D18238BEF231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718EF3E8-359B-425A-AEFF-F421A36F7053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="0" windowWidth="9225" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -882,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:M91"/>
+  <dimension ref="C4:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,247 +1694,247 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C69" s="2" t="s">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2" t="s">
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>146</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>156</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F72" t="s">
         <v>8</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G72" t="s">
         <v>150</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H72" t="s">
         <v>147</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I72" t="s">
         <v>137</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L72" t="s">
         <v>148</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M72" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F71" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>153</v>
-      </c>
-      <c r="H71" t="s">
-        <v>151</v>
-      </c>
-      <c r="I71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F72" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" t="s">
-        <v>159</v>
-      </c>
-      <c r="H72" t="s">
-        <v>158</v>
-      </c>
-      <c r="I72" t="s">
-        <v>160</v>
-      </c>
-      <c r="L72" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H73" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I73" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H74" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I74" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="L74" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G75" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H75" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I75" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H76" t="s">
+        <v>169</v>
+      </c>
+      <c r="I76" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>165</v>
+      </c>
+      <c r="H77" t="s">
         <v>166</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I77" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>172</v>
+      </c>
+      <c r="H78" t="s">
+        <v>166</v>
+      </c>
+      <c r="I78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
         <v>25</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G80" t="s">
         <v>164</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H80" t="s">
         <v>162</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I80" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C82" s="2" t="s">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2" t="s">
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E83" s="1"/>
-      <c r="F83" t="s">
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+      <c r="F85" t="s">
         <v>8</v>
       </c>
-      <c r="L83" t="s">
+      <c r="L85" t="s">
         <v>31</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M85" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F85" t="s">
-        <v>7</v>
-      </c>
-      <c r="L85" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="L87" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
         <v>25</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H93" t="s">
         <v>30</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I93" t="s">
         <v>29</v>
       </c>
     </row>
